--- a/dataanalysis/data/predictions/1000/08080945_0946.xlsx
+++ b/dataanalysis/data/predictions/1000/08080945_0946.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-08</t>
   </si>
   <si>
@@ -431,9 +434,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -791,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH63"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,19 +900,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300066</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>5.37</v>
@@ -930,7 +933,7 @@
         <v>40610.79</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -971,8 +974,23 @@
       <c r="W2">
         <v>0.45</v>
       </c>
+      <c r="X2">
+        <v>1.97</v>
+      </c>
+      <c r="Y2">
+        <v>7.86</v>
+      </c>
+      <c r="Z2">
+        <v>14.41</v>
+      </c>
       <c r="AC2" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -980,22 +998,25 @@
       <c r="AG2">
         <v>3.252175092697144</v>
       </c>
-      <c r="AH2" t="s">
-        <v>139</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300069</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>6.65</v>
@@ -1013,7 +1034,7 @@
         <v>24068.5</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1054,8 +1075,23 @@
       <c r="W3">
         <v>0.61</v>
       </c>
+      <c r="X3">
+        <v>-20</v>
+      </c>
+      <c r="Y3">
+        <v>23.88</v>
+      </c>
+      <c r="Z3">
+        <v>-18.22</v>
+      </c>
       <c r="AC3" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1063,22 +1099,25 @@
       <c r="AG3">
         <v>6.034199237823486</v>
       </c>
-      <c r="AH3" t="s">
-        <v>139</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300199</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.3</v>
@@ -1096,7 +1135,7 @@
         <v>57142.65</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1137,8 +1176,23 @@
       <c r="W4">
         <v>0.04</v>
       </c>
+      <c r="X4">
+        <v>4.76</v>
+      </c>
+      <c r="Y4">
+        <v>25.48</v>
+      </c>
+      <c r="Z4">
+        <v>10.26</v>
+      </c>
       <c r="AC4" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1146,22 +1200,25 @@
       <c r="AG4">
         <v>6.625310897827148</v>
       </c>
-      <c r="AH4" t="s">
-        <v>139</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300224</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.68</v>
@@ -1179,7 +1236,7 @@
         <v>74127.28</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1220,8 +1277,23 @@
       <c r="W5">
         <v>-0.48</v>
       </c>
+      <c r="X5">
+        <v>-1.58</v>
+      </c>
+      <c r="Y5">
+        <v>18.39</v>
+      </c>
+      <c r="Z5">
+        <v>0.44</v>
+      </c>
       <c r="AC5" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1229,22 +1301,25 @@
       <c r="AG5">
         <v>3.795910358428955</v>
       </c>
-      <c r="AH5" t="s">
-        <v>139</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300289</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.61</v>
@@ -1262,7 +1337,7 @@
         <v>77364.47</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1303,8 +1378,23 @@
       <c r="W6">
         <v>-2.54</v>
       </c>
+      <c r="X6">
+        <v>-3.02</v>
+      </c>
+      <c r="Y6">
+        <v>11.57</v>
+      </c>
+      <c r="Z6">
+        <v>13.21</v>
+      </c>
       <c r="AC6" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1312,22 +1402,25 @@
       <c r="AG6">
         <v>7.099887371063232</v>
       </c>
-      <c r="AH6" t="s">
-        <v>139</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300322</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.45</v>
@@ -1345,7 +1438,7 @@
         <v>159677.29</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1386,8 +1479,23 @@
       <c r="W7">
         <v>-1.42</v>
       </c>
+      <c r="X7">
+        <v>-0.29</v>
+      </c>
+      <c r="Y7">
+        <v>27.2</v>
+      </c>
+      <c r="Z7">
+        <v>1.72</v>
+      </c>
       <c r="AC7" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1395,22 +1503,25 @@
       <c r="AG7">
         <v>6.46983528137207</v>
       </c>
-      <c r="AH7" t="s">
-        <v>139</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300329</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-5.27</v>
@@ -1428,7 +1539,7 @@
         <v>9167.700000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1469,8 +1580,23 @@
       <c r="W8">
         <v>-0.09</v>
       </c>
+      <c r="X8">
+        <v>0.16</v>
+      </c>
+      <c r="Y8">
+        <v>12.42</v>
+      </c>
+      <c r="Z8">
+        <v>1.64</v>
+      </c>
       <c r="AC8" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1478,22 +1604,25 @@
       <c r="AG8">
         <v>1.658702611923218</v>
       </c>
-      <c r="AH8" t="s">
-        <v>139</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300368</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.32</v>
@@ -1511,7 +1640,7 @@
         <v>57330.67</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1552,8 +1681,23 @@
       <c r="W9">
         <v>-0.48</v>
       </c>
+      <c r="X9">
+        <v>17.51</v>
+      </c>
+      <c r="Y9">
+        <v>16.79</v>
+      </c>
+      <c r="Z9">
+        <v>17.17</v>
+      </c>
       <c r="AC9" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1561,22 +1705,25 @@
       <c r="AG9">
         <v>0.8185075521469116</v>
       </c>
-      <c r="AH9" t="s">
-        <v>139</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300436</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.24</v>
@@ -1594,7 +1741,7 @@
         <v>50469.6</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>27</v>
@@ -1635,8 +1782,23 @@
       <c r="W10">
         <v>-0.03</v>
       </c>
+      <c r="X10">
+        <v>11.7</v>
+      </c>
+      <c r="Y10">
+        <v>134.53</v>
+      </c>
+      <c r="Z10">
+        <v>11.83</v>
+      </c>
       <c r="AC10" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1644,22 +1806,25 @@
       <c r="AG10">
         <v>3.935092449188232</v>
       </c>
-      <c r="AH10" t="s">
-        <v>139</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300455</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>10.87</v>
@@ -1677,7 +1842,7 @@
         <v>85928.25</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1718,8 +1883,23 @@
       <c r="W11">
         <v>0.32</v>
       </c>
+      <c r="X11">
+        <v>2.84</v>
+      </c>
+      <c r="Y11">
+        <v>20.4</v>
+      </c>
+      <c r="Z11">
+        <v>3.08</v>
+      </c>
       <c r="AC11" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1727,22 +1907,25 @@
       <c r="AG11">
         <v>2.278671264648438</v>
       </c>
-      <c r="AH11" t="s">
-        <v>139</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300539</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.72</v>
@@ -1760,7 +1943,7 @@
         <v>21000.28</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1801,8 +1984,23 @@
       <c r="W12">
         <v>0.38</v>
       </c>
+      <c r="X12">
+        <v>5.19</v>
+      </c>
+      <c r="Y12">
+        <v>27.8</v>
+      </c>
+      <c r="Z12">
+        <v>8.42</v>
+      </c>
       <c r="AC12" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1810,22 +2008,25 @@
       <c r="AG12">
         <v>6.601571559906006</v>
       </c>
-      <c r="AH12" t="s">
-        <v>139</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300548</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.85</v>
@@ -1843,7 +2044,7 @@
         <v>54259.06</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1884,8 +2085,23 @@
       <c r="W13">
         <v>0.06</v>
       </c>
+      <c r="X13">
+        <v>1.14</v>
+      </c>
+      <c r="Y13">
+        <v>93.7</v>
+      </c>
+      <c r="Z13">
+        <v>-0.97</v>
+      </c>
       <c r="AC13" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1893,22 +2109,25 @@
       <c r="AG13">
         <v>1.450670480728149</v>
       </c>
-      <c r="AH13" t="s">
-        <v>139</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300572</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.63</v>
@@ -1926,7 +2145,7 @@
         <v>21900.1</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1967,8 +2186,23 @@
       <c r="W14">
         <v>-0.25</v>
       </c>
+      <c r="X14">
+        <v>-0.11</v>
+      </c>
+      <c r="Y14">
+        <v>27.2</v>
+      </c>
+      <c r="Z14">
+        <v>-2.4</v>
+      </c>
       <c r="AC14" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1976,22 +2210,25 @@
       <c r="AG14">
         <v>4.246958255767822</v>
       </c>
-      <c r="AH14" t="s">
-        <v>139</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300584</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-3.5</v>
@@ -2009,7 +2246,7 @@
         <v>21067.29</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2050,8 +2287,23 @@
       <c r="W15">
         <v>0.04</v>
       </c>
+      <c r="X15">
+        <v>-0.76</v>
+      </c>
+      <c r="Y15">
+        <v>50.83</v>
+      </c>
+      <c r="Z15">
+        <v>9.859999999999999</v>
+      </c>
       <c r="AC15" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2059,22 +2311,25 @@
       <c r="AG15">
         <v>2.480541944503784</v>
       </c>
-      <c r="AH15" t="s">
-        <v>139</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300591</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.45</v>
@@ -2092,7 +2347,7 @@
         <v>57971.56</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2133,8 +2388,23 @@
       <c r="W16">
         <v>0.33</v>
       </c>
+      <c r="X16">
+        <v>-0.14</v>
+      </c>
+      <c r="Y16">
+        <v>14.49</v>
+      </c>
+      <c r="Z16">
+        <v>-1.5</v>
+      </c>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2142,22 +2412,25 @@
       <c r="AG16">
         <v>1.21124267578125</v>
       </c>
-      <c r="AH16" t="s">
-        <v>139</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300600</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>2.33</v>
@@ -2175,7 +2448,7 @@
         <v>38221.79</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2216,8 +2489,23 @@
       <c r="W17">
         <v>0.43</v>
       </c>
+      <c r="X17">
+        <v>1.66</v>
+      </c>
+      <c r="Y17">
+        <v>22.08</v>
+      </c>
+      <c r="Z17">
+        <v>-3.5</v>
+      </c>
       <c r="AC17" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2225,22 +2513,25 @@
       <c r="AG17">
         <v>2.996697664260864</v>
       </c>
-      <c r="AH17" t="s">
-        <v>139</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300609</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-1.8</v>
@@ -2258,7 +2549,7 @@
         <v>9203.34</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2299,8 +2590,23 @@
       <c r="W18">
         <v>0.13</v>
       </c>
+      <c r="X18">
+        <v>-3.41</v>
+      </c>
+      <c r="Y18">
+        <v>46.62</v>
+      </c>
+      <c r="Z18">
+        <v>-0.85</v>
+      </c>
       <c r="AC18" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2308,22 +2614,25 @@
       <c r="AG18">
         <v>11.18473148345947</v>
       </c>
-      <c r="AH18" t="s">
-        <v>139</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300644</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.96</v>
@@ -2341,7 +2650,7 @@
         <v>12901.83</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2382,8 +2691,23 @@
       <c r="W19">
         <v>0.06</v>
       </c>
+      <c r="X19">
+        <v>2.52</v>
+      </c>
+      <c r="Y19">
+        <v>40.5</v>
+      </c>
+      <c r="Z19">
+        <v>3.11</v>
+      </c>
       <c r="AC19" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2391,22 +2715,25 @@
       <c r="AG19">
         <v>4.288508415222168</v>
       </c>
-      <c r="AH19" t="s">
-        <v>139</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300648</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.93</v>
@@ -2424,7 +2751,7 @@
         <v>9632.52</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2465,8 +2792,23 @@
       <c r="W20">
         <v>0.04</v>
       </c>
+      <c r="X20">
+        <v>0.86</v>
+      </c>
+      <c r="Y20">
+        <v>58.46</v>
+      </c>
+      <c r="Z20">
+        <v>4.62</v>
+      </c>
       <c r="AC20" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2474,22 +2816,25 @@
       <c r="AG20">
         <v>2.611024618148804</v>
       </c>
-      <c r="AH20" t="s">
-        <v>139</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300689</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-3.96</v>
@@ -2507,7 +2852,7 @@
         <v>15281</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2548,8 +2893,23 @@
       <c r="W21">
         <v>0</v>
       </c>
+      <c r="X21">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>67.5</v>
+      </c>
+      <c r="Z21">
+        <v>13.07</v>
+      </c>
       <c r="AC21" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2557,22 +2917,25 @@
       <c r="AG21">
         <v>2.298983812332153</v>
       </c>
-      <c r="AH21" t="s">
-        <v>139</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300696</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.22</v>
@@ -2590,7 +2953,7 @@
         <v>42565.97</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2631,8 +2994,23 @@
       <c r="W22">
         <v>0.01</v>
       </c>
+      <c r="X22">
+        <v>-2.59</v>
+      </c>
+      <c r="Y22">
+        <v>33.97</v>
+      </c>
+      <c r="Z22">
+        <v>4.94</v>
+      </c>
       <c r="AC22" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2640,22 +3018,25 @@
       <c r="AG22">
         <v>1.054211139678955</v>
       </c>
-      <c r="AH22" t="s">
-        <v>139</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300703</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3.66</v>
@@ -2673,7 +3054,7 @@
         <v>36332.21</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2714,8 +3095,23 @@
       <c r="W23">
         <v>0.24</v>
       </c>
+      <c r="X23">
+        <v>4.5</v>
+      </c>
+      <c r="Y23">
+        <v>32.83</v>
+      </c>
+      <c r="Z23">
+        <v>10.54</v>
+      </c>
       <c r="AC23" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2723,22 +3119,25 @@
       <c r="AG23">
         <v>3.025164365768433</v>
       </c>
-      <c r="AH23" t="s">
-        <v>139</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300706</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.49</v>
@@ -2756,7 +3155,7 @@
         <v>103784.83</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2797,8 +3196,23 @@
       <c r="W24">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X24">
+        <v>2.23</v>
+      </c>
+      <c r="Y24">
+        <v>46.86</v>
+      </c>
+      <c r="Z24">
+        <v>-3.12</v>
+      </c>
       <c r="AC24" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2806,22 +3220,25 @@
       <c r="AG24">
         <v>2.090462923049927</v>
       </c>
-      <c r="AH24" t="s">
-        <v>139</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300731</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.61</v>
@@ -2839,7 +3256,7 @@
         <v>46584.68</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2880,8 +3297,23 @@
       <c r="W25">
         <v>0.42</v>
       </c>
+      <c r="X25">
+        <v>4.34</v>
+      </c>
+      <c r="Y25">
+        <v>52.88</v>
+      </c>
+      <c r="Z25">
+        <v>4.78</v>
+      </c>
       <c r="AC25" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2889,22 +3321,25 @@
       <c r="AG25">
         <v>2.722280025482178</v>
       </c>
-      <c r="AH25" t="s">
-        <v>139</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300732</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0.37</v>
@@ -2922,7 +3357,7 @@
         <v>13231.12</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -2963,8 +3398,23 @@
       <c r="W26">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X26">
+        <v>0.33</v>
+      </c>
+      <c r="Y26">
+        <v>12.4</v>
+      </c>
+      <c r="Z26">
+        <v>14.39</v>
+      </c>
       <c r="AC26" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -2972,22 +3422,25 @@
       <c r="AG26">
         <v>3.532778739929199</v>
       </c>
-      <c r="AH26" t="s">
-        <v>139</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300733</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.95</v>
@@ -3005,7 +3458,7 @@
         <v>22728.96</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3046,8 +3499,23 @@
       <c r="W27">
         <v>-0.27</v>
       </c>
+      <c r="X27">
+        <v>-1.92</v>
+      </c>
+      <c r="Y27">
+        <v>23.9</v>
+      </c>
+      <c r="Z27">
+        <v>0.84</v>
+      </c>
       <c r="AC27" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3055,22 +3523,25 @@
       <c r="AG27">
         <v>2.576352596282959</v>
       </c>
-      <c r="AH27" t="s">
-        <v>139</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300753</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>13.39</v>
@@ -3088,7 +3559,7 @@
         <v>69971.19</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3129,8 +3600,23 @@
       <c r="W28">
         <v>-3.32</v>
       </c>
+      <c r="X28">
+        <v>1.93</v>
+      </c>
+      <c r="Y28">
+        <v>35.17</v>
+      </c>
+      <c r="Z28">
+        <v>-9.52</v>
+      </c>
       <c r="AC28" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3138,22 +3624,25 @@
       <c r="AG28">
         <v>7.636658668518066</v>
       </c>
-      <c r="AH28" t="s">
-        <v>139</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300767</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-0.95</v>
@@ -3171,7 +3660,7 @@
         <v>9201.48</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3212,8 +3701,23 @@
       <c r="W29">
         <v>-0.01</v>
       </c>
+      <c r="X29">
+        <v>0.66</v>
+      </c>
+      <c r="Y29">
+        <v>17.08</v>
+      </c>
+      <c r="Z29">
+        <v>2.15</v>
+      </c>
       <c r="AC29" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3221,22 +3725,25 @@
       <c r="AG29">
         <v>4.320596694946289</v>
       </c>
-      <c r="AH29" t="s">
-        <v>139</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300830</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-9.640000000000001</v>
@@ -3254,7 +3761,7 @@
         <v>43312.11</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3295,8 +3802,23 @@
       <c r="W30">
         <v>-2.06</v>
       </c>
+      <c r="X30">
+        <v>2.37</v>
+      </c>
+      <c r="Y30">
+        <v>13.73</v>
+      </c>
+      <c r="Z30">
+        <v>1.03</v>
+      </c>
       <c r="AC30" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3304,22 +3826,25 @@
       <c r="AG30">
         <v>2.384039878845215</v>
       </c>
-      <c r="AH30" t="s">
-        <v>139</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300875</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>5.64</v>
@@ -3337,7 +3862,7 @@
         <v>51392.43</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3378,8 +3903,23 @@
       <c r="W31">
         <v>0.7</v>
       </c>
+      <c r="X31">
+        <v>4.44</v>
+      </c>
+      <c r="Y31">
+        <v>68.53</v>
+      </c>
+      <c r="Z31">
+        <v>5.11</v>
+      </c>
       <c r="AC31" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3387,22 +3927,25 @@
       <c r="AG31">
         <v>3.565621614456177</v>
       </c>
-      <c r="AH31" t="s">
-        <v>139</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300885</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-5.81</v>
@@ -3420,7 +3963,7 @@
         <v>26420.74</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -3461,8 +4004,23 @@
       <c r="W32">
         <v>-0.53</v>
       </c>
+      <c r="X32">
+        <v>5.25</v>
+      </c>
+      <c r="Y32">
+        <v>31.26</v>
+      </c>
+      <c r="Z32">
+        <v>7.72</v>
+      </c>
       <c r="AC32" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3470,22 +4028,25 @@
       <c r="AG32">
         <v>7.084826946258545</v>
       </c>
-      <c r="AH32" t="s">
-        <v>139</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300903</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-2.23</v>
@@ -3503,7 +4064,7 @@
         <v>18258.88</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3544,8 +4105,23 @@
       <c r="W33">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X33">
+        <v>1.21</v>
+      </c>
+      <c r="Y33">
+        <v>12.86</v>
+      </c>
+      <c r="Z33">
+        <v>1.18</v>
+      </c>
       <c r="AC33" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3553,22 +4129,25 @@
       <c r="AG33">
         <v>5.581746101379395</v>
       </c>
-      <c r="AH33" t="s">
-        <v>139</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300906</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>15.14</v>
@@ -3586,7 +4165,7 @@
         <v>18580.12</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3627,8 +4206,23 @@
       <c r="W34">
         <v>0.14</v>
       </c>
+      <c r="X34">
+        <v>-3.09</v>
+      </c>
+      <c r="Y34">
+        <v>37.77</v>
+      </c>
+      <c r="Z34">
+        <v>-7.86</v>
+      </c>
       <c r="AC34" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3636,22 +4230,25 @@
       <c r="AG34">
         <v>2.148489952087402</v>
       </c>
-      <c r="AH34" t="s">
-        <v>139</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300943</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.74</v>
@@ -3669,7 +4266,7 @@
         <v>27718</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3710,8 +4307,23 @@
       <c r="W35">
         <v>0.57</v>
       </c>
+      <c r="X35">
+        <v>3.99</v>
+      </c>
+      <c r="Y35">
+        <v>19.85</v>
+      </c>
+      <c r="Z35">
+        <v>2.74</v>
+      </c>
       <c r="AC35" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3719,22 +4331,25 @@
       <c r="AG35">
         <v>2.695850372314453</v>
       </c>
-      <c r="AH35" t="s">
-        <v>139</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300965</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-5.54</v>
@@ -3752,7 +4367,7 @@
         <v>9869.030000000001</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3793,8 +4408,23 @@
       <c r="W36">
         <v>-0.15</v>
       </c>
+      <c r="X36">
+        <v>-0.88</v>
+      </c>
+      <c r="Y36">
+        <v>84.38</v>
+      </c>
+      <c r="Z36">
+        <v>1.61</v>
+      </c>
       <c r="AC36" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3802,22 +4432,25 @@
       <c r="AG36">
         <v>3.821054458618164</v>
       </c>
-      <c r="AH36" t="s">
-        <v>139</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301005</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3835,7 +4468,7 @@
         <v>20817.01</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3876,8 +4509,23 @@
       <c r="W37">
         <v>0.11</v>
       </c>
+      <c r="X37">
+        <v>20</v>
+      </c>
+      <c r="Y37">
+        <v>55.87</v>
+      </c>
+      <c r="Z37">
+        <v>20.49</v>
+      </c>
       <c r="AC37" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3885,22 +4533,25 @@
       <c r="AG37">
         <v>4.009013652801514</v>
       </c>
-      <c r="AH37" t="s">
-        <v>139</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301069</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.75</v>
@@ -3918,7 +4569,7 @@
         <v>27498.82</v>
       </c>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3959,8 +4610,23 @@
       <c r="W38">
         <v>0.02</v>
       </c>
+      <c r="X38">
+        <v>9.74</v>
+      </c>
+      <c r="Y38">
+        <v>23.33</v>
+      </c>
+      <c r="Z38">
+        <v>9.380000000000001</v>
+      </c>
       <c r="AC38" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3968,22 +4634,25 @@
       <c r="AG38">
         <v>4.10038423538208</v>
       </c>
-      <c r="AH38" t="s">
-        <v>139</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301076</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.89</v>
@@ -4001,7 +4670,7 @@
         <v>44223.32</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4042,8 +4711,23 @@
       <c r="W39">
         <v>0.16</v>
       </c>
+      <c r="X39">
+        <v>14.63</v>
+      </c>
+      <c r="Y39">
+        <v>51.45</v>
+      </c>
+      <c r="Z39">
+        <v>12.29</v>
+      </c>
       <c r="AC39" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4051,22 +4735,25 @@
       <c r="AG39">
         <v>5.90330696105957</v>
       </c>
-      <c r="AH39" t="s">
-        <v>139</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301095</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-4.17</v>
@@ -4084,7 +4771,7 @@
         <v>18251.87</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4125,8 +4812,23 @@
       <c r="W40">
         <v>-0.12</v>
       </c>
+      <c r="X40">
+        <v>6.79</v>
+      </c>
+      <c r="Y40">
+        <v>81.77</v>
+      </c>
+      <c r="Z40">
+        <v>11.78</v>
+      </c>
       <c r="AC40" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4134,22 +4836,25 @@
       <c r="AG40">
         <v>8.330073356628418</v>
       </c>
-      <c r="AH40" t="s">
-        <v>139</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301117</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.8</v>
@@ -4167,7 +4872,7 @@
         <v>44367.4</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4208,8 +4913,23 @@
       <c r="W41">
         <v>1.04</v>
       </c>
+      <c r="X41">
+        <v>1.48</v>
+      </c>
+      <c r="Y41">
+        <v>41.8</v>
+      </c>
+      <c r="Z41">
+        <v>0.34</v>
+      </c>
       <c r="AC41" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4217,22 +4937,25 @@
       <c r="AG41">
         <v>8.062298774719238</v>
       </c>
-      <c r="AH41" t="s">
-        <v>139</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301123</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>1.13</v>
@@ -4250,7 +4973,7 @@
         <v>8591.09</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4291,8 +5014,23 @@
       <c r="W42">
         <v>0.03</v>
       </c>
+      <c r="X42">
+        <v>1.74</v>
+      </c>
+      <c r="Y42">
+        <v>34.98</v>
+      </c>
+      <c r="Z42">
+        <v>11.9</v>
+      </c>
       <c r="AC42" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4300,22 +5038,25 @@
       <c r="AG42">
         <v>2.720772743225098</v>
       </c>
-      <c r="AH42" t="s">
-        <v>139</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301128</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>11.85</v>
@@ -4333,7 +5074,7 @@
         <v>54083.6</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4374,8 +5115,23 @@
       <c r="W43">
         <v>0.51</v>
       </c>
+      <c r="X43">
+        <v>-2.41</v>
+      </c>
+      <c r="Y43">
+        <v>70.3</v>
+      </c>
+      <c r="Z43">
+        <v>-0.42</v>
+      </c>
       <c r="AC43" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4383,22 +5139,25 @@
       <c r="AG43">
         <v>3.389672994613647</v>
       </c>
-      <c r="AH43" t="s">
-        <v>139</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301161</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.57</v>
@@ -4416,7 +5175,7 @@
         <v>22661.58</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -4457,8 +5216,23 @@
       <c r="W44">
         <v>0.4</v>
       </c>
+      <c r="X44">
+        <v>-1.35</v>
+      </c>
+      <c r="Y44">
+        <v>39.67</v>
+      </c>
+      <c r="Z44">
+        <v>3.58</v>
+      </c>
       <c r="AC44" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4466,22 +5240,25 @@
       <c r="AG44">
         <v>3.236549377441406</v>
       </c>
-      <c r="AH44" t="s">
-        <v>139</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301200</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>1.66</v>
@@ -4499,7 +5276,7 @@
         <v>19882.84</v>
       </c>
       <c r="J45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4540,8 +5317,23 @@
       <c r="W45">
         <v>-0.01</v>
       </c>
+      <c r="X45">
+        <v>7.09</v>
+      </c>
+      <c r="Y45">
+        <v>107.5</v>
+      </c>
+      <c r="Z45">
+        <v>20.39</v>
+      </c>
       <c r="AC45" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4549,22 +5341,25 @@
       <c r="AG45">
         <v>5.394214630126953</v>
       </c>
-      <c r="AH45" t="s">
-        <v>139</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301306</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.41</v>
@@ -4582,7 +5377,7 @@
         <v>19274.82</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K46">
         <v>13</v>
@@ -4623,8 +5418,23 @@
       <c r="W46">
         <v>0.05</v>
       </c>
+      <c r="X46">
+        <v>-3.83</v>
+      </c>
+      <c r="Y46">
+        <v>73.39</v>
+      </c>
+      <c r="Z46">
+        <v>6.3</v>
+      </c>
       <c r="AC46" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4632,22 +5442,25 @@
       <c r="AG46">
         <v>0.4376879036426544</v>
       </c>
-      <c r="AH46" t="s">
-        <v>139</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301357</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-6.24</v>
@@ -4665,7 +5478,7 @@
         <v>45687.34</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -4706,8 +5519,23 @@
       <c r="W47">
         <v>-1.95</v>
       </c>
+      <c r="X47">
+        <v>11.55</v>
+      </c>
+      <c r="Y47">
+        <v>163.3</v>
+      </c>
+      <c r="Z47">
+        <v>8.869999999999999</v>
+      </c>
       <c r="AC47" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4715,22 +5543,25 @@
       <c r="AG47">
         <v>2.101424932479858</v>
       </c>
-      <c r="AH47" t="s">
-        <v>139</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301389</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-2.9</v>
@@ -4748,7 +5579,7 @@
         <v>36126.94</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48">
         <v>24</v>
@@ -4789,8 +5620,23 @@
       <c r="W48">
         <v>-1.39</v>
       </c>
+      <c r="X48">
+        <v>-1.72</v>
+      </c>
+      <c r="Y48">
+        <v>51.91</v>
+      </c>
+      <c r="Z48">
+        <v>4.83</v>
+      </c>
       <c r="AC48" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4798,22 +5644,25 @@
       <c r="AG48">
         <v>2.822218418121338</v>
       </c>
-      <c r="AH48" t="s">
-        <v>139</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301392</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-3.45</v>
@@ -4831,7 +5680,7 @@
         <v>13269.84</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -4872,8 +5721,23 @@
       <c r="W49">
         <v>-0.15</v>
       </c>
+      <c r="X49">
+        <v>-3.72</v>
+      </c>
+      <c r="Y49">
+        <v>166</v>
+      </c>
+      <c r="Z49">
+        <v>-3.24</v>
+      </c>
       <c r="AC49" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4881,22 +5745,25 @@
       <c r="AG49">
         <v>7.817676067352295</v>
       </c>
-      <c r="AH49" t="s">
-        <v>139</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301397</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>2.78</v>
@@ -4914,7 +5781,7 @@
         <v>18525.24</v>
       </c>
       <c r="J50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4955,8 +5822,23 @@
       <c r="W50">
         <v>0.53</v>
       </c>
+      <c r="X50">
+        <v>-2.39</v>
+      </c>
+      <c r="Y50">
+        <v>43.98</v>
+      </c>
+      <c r="Z50">
+        <v>12.25</v>
+      </c>
       <c r="AC50" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4964,22 +5846,25 @@
       <c r="AG50">
         <v>4.313177108764648</v>
       </c>
-      <c r="AH50" t="s">
-        <v>139</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301489</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>6.9</v>
@@ -4997,7 +5882,7 @@
         <v>46550.5</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>7</v>
@@ -5038,8 +5923,23 @@
       <c r="W51">
         <v>0.27</v>
       </c>
+      <c r="X51">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>151.5</v>
+      </c>
+      <c r="Z51">
+        <v>9.949999999999999</v>
+      </c>
       <c r="AC51" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5047,22 +5947,25 @@
       <c r="AG51">
         <v>5.001495361328125</v>
       </c>
-      <c r="AH51" t="s">
-        <v>139</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688039</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-7.91</v>
@@ -5080,7 +5983,7 @@
         <v>21033.72</v>
       </c>
       <c r="J52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -5121,8 +6024,23 @@
       <c r="W52">
         <v>-0.46</v>
       </c>
+      <c r="X52">
+        <v>1.58</v>
+      </c>
+      <c r="Y52">
+        <v>56.3</v>
+      </c>
+      <c r="Z52">
+        <v>3.3</v>
+      </c>
       <c r="AC52" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5130,22 +6048,25 @@
       <c r="AG52">
         <v>4.002200603485107</v>
       </c>
-      <c r="AH52" t="s">
-        <v>139</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688110</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-6.63</v>
@@ -5163,7 +6084,7 @@
         <v>120656.44</v>
       </c>
       <c r="J53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -5204,8 +6125,23 @@
       <c r="W53">
         <v>-0.33</v>
       </c>
+      <c r="X53">
+        <v>14.66</v>
+      </c>
+      <c r="Y53">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>29.13</v>
+      </c>
       <c r="AC53" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5213,22 +6149,25 @@
       <c r="AG53">
         <v>0.9033634066581726</v>
       </c>
-      <c r="AH53" t="s">
-        <v>139</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688167</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.58</v>
@@ -5246,7 +6185,7 @@
         <v>18015.71</v>
       </c>
       <c r="J54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -5287,8 +6226,23 @@
       <c r="W54">
         <v>0.04</v>
       </c>
+      <c r="X54">
+        <v>-1.22</v>
+      </c>
+      <c r="Y54">
+        <v>101.98</v>
+      </c>
+      <c r="Z54">
+        <v>-0.99</v>
+      </c>
       <c r="AC54" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5296,22 +6250,25 @@
       <c r="AG54">
         <v>3.443468809127808</v>
       </c>
-      <c r="AH54" t="s">
-        <v>139</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688210</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-4.95</v>
@@ -5329,7 +6286,7 @@
         <v>6300.63</v>
       </c>
       <c r="J55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5370,8 +6327,23 @@
       <c r="W55">
         <v>0</v>
       </c>
+      <c r="X55">
+        <v>3.21</v>
+      </c>
+      <c r="Y55">
+        <v>41.3</v>
+      </c>
+      <c r="Z55">
+        <v>0.49</v>
+      </c>
       <c r="AC55" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5379,22 +6351,25 @@
       <c r="AG55">
         <v>4.837612628936768</v>
       </c>
-      <c r="AH55" t="s">
-        <v>139</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688258</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-3.22</v>
@@ -5412,7 +6387,7 @@
         <v>14529.62</v>
       </c>
       <c r="J56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K56">
         <v>8</v>
@@ -5453,8 +6428,23 @@
       <c r="W56">
         <v>-0.06</v>
       </c>
+      <c r="X56">
+        <v>1.52</v>
+      </c>
+      <c r="Y56">
+        <v>71.87</v>
+      </c>
+      <c r="Z56">
+        <v>0.35</v>
+      </c>
       <c r="AC56" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5462,22 +6452,25 @@
       <c r="AG56">
         <v>6.692199230194092</v>
       </c>
-      <c r="AH56" t="s">
-        <v>139</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688500</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-5.62</v>
@@ -5495,7 +6488,7 @@
         <v>13172.92</v>
       </c>
       <c r="J57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -5536,8 +6529,23 @@
       <c r="W57">
         <v>-0.22</v>
       </c>
+      <c r="X57">
+        <v>-1.01</v>
+      </c>
+      <c r="Y57">
+        <v>86.02</v>
+      </c>
+      <c r="Z57">
+        <v>4.61</v>
+      </c>
       <c r="AC57" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5545,22 +6553,25 @@
       <c r="AG57">
         <v>4.388565540313721</v>
       </c>
-      <c r="AH57" t="s">
-        <v>139</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688507</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-0.01</v>
@@ -5578,7 +6589,7 @@
         <v>16282.75</v>
       </c>
       <c r="J58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5619,8 +6630,23 @@
       <c r="W58">
         <v>-0.03</v>
       </c>
+      <c r="X58">
+        <v>-0.47</v>
+      </c>
+      <c r="Y58">
+        <v>110.88</v>
+      </c>
+      <c r="Z58">
+        <v>-3.41</v>
+      </c>
       <c r="AC58" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5628,22 +6654,25 @@
       <c r="AG58">
         <v>1.894418358802795</v>
       </c>
-      <c r="AH58" t="s">
-        <v>139</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688556</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>1.08</v>
@@ -5661,7 +6690,7 @@
         <v>19488.59</v>
       </c>
       <c r="J59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>10</v>
@@ -5702,8 +6731,23 @@
       <c r="W59">
         <v>-0.13</v>
       </c>
+      <c r="X59">
+        <v>-2.96</v>
+      </c>
+      <c r="Y59">
+        <v>12.38</v>
+      </c>
+      <c r="Z59">
+        <v>2.06</v>
+      </c>
       <c r="AC59" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5711,22 +6755,25 @@
       <c r="AG59">
         <v>6.838480949401855</v>
       </c>
-      <c r="AH59" t="s">
-        <v>139</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688630</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>3.42</v>
@@ -5744,7 +6791,7 @@
         <v>34002.35</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K60">
         <v>12</v>
@@ -5785,8 +6832,23 @@
       <c r="W60">
         <v>0.16</v>
       </c>
+      <c r="X60">
+        <v>6</v>
+      </c>
+      <c r="Y60">
+        <v>146.98</v>
+      </c>
+      <c r="Z60">
+        <v>16.39</v>
+      </c>
       <c r="AC60" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5794,22 +6856,25 @@
       <c r="AG60">
         <v>1.784724831581116</v>
       </c>
-      <c r="AH60" t="s">
-        <v>139</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688711</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-1.22</v>
@@ -5827,7 +6892,7 @@
         <v>10647.21</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5868,8 +6933,23 @@
       <c r="W61">
         <v>-0.3</v>
       </c>
+      <c r="X61">
+        <v>-1.81</v>
+      </c>
+      <c r="Y61">
+        <v>29.83</v>
+      </c>
+      <c r="Z61">
+        <v>2.44</v>
+      </c>
       <c r="AC61" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5877,22 +6957,25 @@
       <c r="AG61">
         <v>3.98166823387146</v>
       </c>
-      <c r="AH61" t="s">
-        <v>139</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688788</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-4.13</v>
@@ -5910,7 +6993,7 @@
         <v>15147.5</v>
       </c>
       <c r="J62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -5951,8 +7034,23 @@
       <c r="W62">
         <v>-0.15</v>
       </c>
+      <c r="X62">
+        <v>1.48</v>
+      </c>
+      <c r="Y62">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>5.76</v>
+      </c>
       <c r="AC62" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5960,22 +7058,25 @@
       <c r="AG62">
         <v>7.533989429473877</v>
       </c>
-      <c r="AH62" t="s">
-        <v>139</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688800</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-3.53</v>
@@ -5993,7 +7094,7 @@
         <v>30863.45</v>
       </c>
       <c r="J63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6034,8 +7135,23 @@
       <c r="W63">
         <v>-0.15</v>
       </c>
+      <c r="X63">
+        <v>2.46</v>
+      </c>
+      <c r="Y63">
+        <v>68.55</v>
+      </c>
+      <c r="Z63">
+        <v>0.2</v>
+      </c>
       <c r="AC63" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6043,8 +7159,11 @@
       <c r="AG63">
         <v>8.427243232727051</v>
       </c>
-      <c r="AH63" t="s">
-        <v>139</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
